--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -680,16 +680,25 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -718,6 +727,15 @@
   </si>
   <si>
     <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
@@ -4335,13 +4353,13 @@
         <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4370,10 +4388,10 @@
         <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4441,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4449,10 +4467,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4503,7 +4521,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4521,7 +4539,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4535,7 +4553,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4561,10 +4579,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4608,7 +4626,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4617,7 +4635,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4635,7 +4653,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4649,7 +4667,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4672,19 +4690,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4751,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4751,13 +4769,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4765,7 +4783,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4791,10 +4809,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4845,7 +4863,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4863,7 +4881,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4877,7 +4895,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4903,10 +4921,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -4950,7 +4968,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -4959,7 +4977,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4977,7 +4995,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4991,7 +5009,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5017,16 +5035,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5075,7 +5093,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5093,13 +5111,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5107,7 +5125,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5133,13 +5151,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5189,7 +5207,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5207,13 +5225,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5221,7 +5239,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5247,14 +5265,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5303,7 +5321,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5321,13 +5339,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5335,7 +5353,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5343,7 +5361,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5361,14 +5379,14 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5417,7 +5435,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5435,13 +5453,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5449,7 +5467,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5472,19 +5490,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5533,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5551,13 +5569,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5565,7 +5583,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5591,16 +5609,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5649,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5667,13 +5685,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5684,7 +5702,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5706,16 +5724,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5797,7 +5815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5820,16 +5838,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5879,7 +5897,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -5894,16 +5912,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5911,7 +5929,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5934,16 +5952,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5993,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6008,16 +6026,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6025,7 +6043,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6048,16 +6066,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6107,7 +6125,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6125,10 +6143,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6139,7 +6157,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6162,16 +6180,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6221,7 +6239,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6236,16 +6254,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6253,7 +6271,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6276,13 +6294,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6333,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6348,16 +6366,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6365,7 +6383,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6391,10 +6409,10 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6445,7 +6463,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6463,7 +6481,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6477,7 +6495,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6503,10 +6521,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
@@ -6559,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6577,7 +6595,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6591,11 +6609,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6617,10 +6635,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>159</v>
@@ -6675,7 +6693,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6707,7 +6725,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6733,10 +6751,10 @@
         <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6766,28 +6784,28 @@
         <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6802,10 +6820,10 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6819,7 +6837,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6842,13 +6860,13 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6899,7 +6917,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -6914,10 +6932,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6931,7 +6949,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6957,10 +6975,10 @@
         <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6990,28 +7008,28 @@
         <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7026,16 +7044,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7061,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7066,16 +7084,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7125,7 +7143,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7140,24 +7158,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7180,19 +7198,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7241,7 +7259,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7256,16 +7274,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7273,7 +7291,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7296,16 +7314,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7355,7 +7373,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7373,13 +7391,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7387,7 +7405,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7410,16 +7428,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7469,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7484,10 +7502,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7501,7 +7519,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7524,13 +7542,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7581,7 +7599,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7593,13 +7611,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7613,7 +7631,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7639,10 +7657,10 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7693,7 +7711,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7729,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7743,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7751,10 +7769,10 @@
         <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>159</v>
@@ -7807,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7825,7 +7843,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7839,11 +7857,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7865,10 +7883,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>159</v>
@@ -7923,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7973,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7981,10 +7999,10 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8035,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8053,7 +8071,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8067,7 +8085,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8093,13 +8111,13 @@
         <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8129,7 +8147,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8147,7 +8165,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8165,13 +8183,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8179,7 +8197,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8205,10 +8223,10 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>196</v>
@@ -8241,25 +8259,25 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8277,13 +8295,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8291,7 +8309,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8317,16 +8335,16 @@
         <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8354,10 +8372,10 @@
         <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8375,7 +8393,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8393,13 +8411,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8407,7 +8425,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8433,10 +8451,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8487,7 +8505,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8505,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8519,7 +8537,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8545,10 +8563,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8592,7 +8610,7 @@
         <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
@@ -8601,7 +8619,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8619,7 +8637,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8633,7 +8651,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8656,19 +8674,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8705,7 +8723,7 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8715,7 +8733,7 @@
         <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8733,13 +8751,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8747,10 +8765,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -8772,19 +8790,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8813,7 +8831,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8831,7 +8849,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8849,13 +8867,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8863,7 +8881,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8889,10 +8907,10 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8943,7 +8961,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8961,7 +8979,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8975,7 +8993,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9001,10 +9019,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>159</v>
@@ -9048,7 +9066,7 @@
         <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
@@ -9057,7 +9075,7 @@
         <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9075,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9089,7 +9107,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9115,23 +9133,23 @@
         <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9173,7 +9191,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9191,13 +9209,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9205,7 +9223,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9231,13 +9249,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9287,7 +9305,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9305,13 +9323,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9319,7 +9337,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9345,14 +9363,14 @@
         <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9401,7 +9419,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9419,13 +9437,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9433,7 +9451,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9459,14 +9477,14 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9533,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9533,13 +9551,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9547,7 +9565,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9570,19 +9588,19 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9631,7 +9649,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9649,13 +9667,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9663,10 +9681,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9688,19 +9706,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9729,7 +9747,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9747,7 +9765,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9765,13 +9783,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9779,7 +9797,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9805,10 +9823,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9859,7 +9877,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9877,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9891,7 +9909,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9917,10 +9935,10 @@
         <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>159</v>
@@ -9964,7 +9982,7 @@
         <v>134</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
@@ -9973,7 +9991,7 @@
         <v>135</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9991,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10005,7 +10023,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10031,23 +10049,23 @@
         <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10089,7 +10107,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10107,13 +10125,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10121,7 +10139,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10147,13 +10165,13 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10203,7 +10221,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10221,13 +10239,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10235,7 +10253,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10261,14 +10279,14 @@
         <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10317,7 +10335,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10335,13 +10353,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10349,7 +10367,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10375,14 +10393,14 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10431,7 +10449,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10449,13 +10467,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10463,7 +10481,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10486,19 +10504,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10547,7 +10565,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10565,13 +10583,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10579,7 +10597,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10605,16 +10623,16 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10663,7 +10681,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10681,13 +10699,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10695,7 +10713,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10718,16 +10736,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10777,7 +10795,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10789,19 +10807,19 @@
         <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10809,7 +10827,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10832,16 +10850,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10889,7 +10907,7 @@
         <v>217</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10907,13 +10925,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10921,10 +10939,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -10946,16 +10964,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11005,7 +11023,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11017,13 +11035,13 @@
         <v>142</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11037,10 +11055,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11062,16 +11080,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11121,7 +11139,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11133,19 +11151,19 @@
         <v>142</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11153,7 +11171,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11176,16 +11194,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11235,7 +11253,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11253,7 +11271,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -745,6 +745,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4464,13 +4468,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4521,7 +4525,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4539,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4553,7 +4557,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4579,10 +4583,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4626,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4635,7 +4639,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4653,7 +4657,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4667,7 +4671,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4690,19 +4694,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4751,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4769,13 +4773,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4783,7 +4787,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4806,13 +4810,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4863,7 +4867,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4881,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4895,7 +4899,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4921,10 +4925,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -4968,7 +4972,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -4977,7 +4981,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4995,7 +4999,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5009,7 +5013,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5035,16 +5039,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5093,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5111,13 +5115,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5125,7 +5129,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5148,16 +5152,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5207,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5225,13 +5229,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5239,7 +5243,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5265,14 +5269,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5321,7 +5325,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5339,13 +5343,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5353,7 +5357,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5376,17 +5380,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5435,7 +5439,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5453,13 +5457,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5467,7 +5471,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5490,19 +5494,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5555,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5569,13 +5573,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5583,7 +5587,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5606,19 +5610,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5667,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5685,13 +5689,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5702,7 +5706,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5724,7 +5728,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>223</v>
@@ -5815,7 +5819,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5838,16 +5842,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5897,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -5912,16 +5916,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5929,7 +5933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5952,16 +5956,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6011,7 +6015,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6026,16 +6030,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6043,7 +6047,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6066,16 +6070,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6125,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6143,10 +6147,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6157,7 +6161,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6180,16 +6184,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6239,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6254,16 +6258,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6271,7 +6275,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6294,13 +6298,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6351,7 +6355,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6366,16 +6370,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6383,7 +6387,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6406,13 +6410,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6463,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6481,7 +6485,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6495,7 +6499,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6521,10 +6525,10 @@
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>159</v>
@@ -6577,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6595,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6609,11 +6613,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6635,10 +6639,10 @@
         <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>159</v>
@@ -6693,7 +6697,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6725,7 +6729,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6751,10 +6755,10 @@
         <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6784,10 +6788,10 @@
         <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6805,7 +6809,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6820,10 +6824,10 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6841,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6860,13 +6864,13 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6917,7 +6921,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -6932,10 +6936,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6949,7 +6953,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6975,10 +6979,10 @@
         <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7008,10 +7012,10 @@
         <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7029,7 +7033,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7044,16 +7048,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7061,7 +7065,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7084,16 +7088,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7143,7 +7147,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7158,24 +7162,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7198,19 +7202,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7259,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7274,16 +7278,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7291,7 +7295,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7314,16 +7318,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7373,7 +7377,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7391,13 +7395,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7405,7 +7409,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7428,16 +7432,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7487,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7502,10 +7506,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7519,7 +7523,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7542,13 +7546,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7599,7 +7603,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7611,13 +7615,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7631,7 +7635,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7654,13 +7658,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7711,7 +7715,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7729,7 +7733,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7743,7 +7747,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7769,10 +7773,10 @@
         <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>159</v>
@@ -7825,7 +7829,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7843,7 +7847,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7857,11 +7861,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7883,10 +7887,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>159</v>
@@ -7941,7 +7945,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7973,7 +7977,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7996,13 +8000,13 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8053,7 +8057,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8071,7 +8075,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8085,7 +8089,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8111,13 +8115,13 @@
         <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8147,7 +8151,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8165,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8183,13 +8187,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8197,7 +8201,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8223,10 +8227,10 @@
         <v>193</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>196</v>
@@ -8259,7 +8263,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8277,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8295,13 +8299,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8309,7 +8313,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8335,16 +8339,16 @@
         <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8372,10 +8376,10 @@
         <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8393,7 +8397,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8411,13 +8415,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8429,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8448,13 +8452,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8505,7 +8509,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8523,7 +8527,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8537,7 +8541,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8563,10 +8567,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8610,7 +8614,7 @@
         <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
@@ -8619,7 +8623,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8637,7 +8641,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8651,7 +8655,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8674,19 +8678,19 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8723,7 +8727,7 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8733,7 +8737,7 @@
         <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8751,13 +8755,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8765,10 +8769,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -8790,19 +8794,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8831,7 +8835,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8849,7 +8853,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8867,13 +8871,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8881,7 +8885,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8904,13 +8908,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8961,7 +8965,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8979,7 +8983,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8993,7 +8997,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9019,10 +9023,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>159</v>
@@ -9066,7 +9070,7 @@
         <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
@@ -9075,7 +9079,7 @@
         <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9093,7 +9097,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9107,7 +9111,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9133,23 +9137,23 @@
         <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9191,7 +9195,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9209,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9223,7 +9227,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9246,16 +9250,16 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9305,7 +9309,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9323,13 +9327,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9337,7 +9341,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9363,14 +9367,14 @@
         <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9419,7 +9423,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9437,13 +9441,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9451,7 +9455,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9474,17 +9478,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9537,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9551,13 +9555,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9565,7 +9569,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9588,19 +9592,19 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9649,7 +9653,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9667,13 +9671,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9681,10 +9685,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -9706,19 +9710,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9747,7 +9751,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9765,7 +9769,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9783,13 +9787,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9797,7 +9801,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9820,13 +9824,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9877,7 +9881,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9895,7 +9899,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9909,7 +9913,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9935,10 +9939,10 @@
         <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>159</v>
@@ -9982,7 +9986,7 @@
         <v>134</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
@@ -9991,7 +9995,7 @@
         <v>135</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10009,7 +10013,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10023,7 +10027,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10049,23 +10053,23 @@
         <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>77</v>
@@ -10107,7 +10111,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10125,13 +10129,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10139,7 +10143,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10162,16 +10166,16 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10221,7 +10225,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10239,13 +10243,13 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10253,7 +10257,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10279,14 +10283,14 @@
         <v>106</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10335,7 +10339,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10353,13 +10357,13 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10367,7 +10371,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10390,17 +10394,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10449,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10467,13 +10471,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10481,7 +10485,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10504,19 +10508,19 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10565,7 +10569,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10583,13 +10587,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10597,7 +10601,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10620,19 +10624,19 @@
         <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10681,7 +10685,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10699,13 +10703,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10713,7 +10717,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10736,16 +10740,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10795,7 +10799,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10807,19 +10811,19 @@
         <v>142</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>77</v>
@@ -10827,7 +10831,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10850,16 +10854,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10907,7 +10911,7 @@
         <v>217</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10925,13 +10929,13 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -10939,10 +10943,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -10964,16 +10968,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11023,7 +11027,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11035,13 +11039,13 @@
         <v>142</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11055,10 +11059,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11080,16 +11084,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11139,7 +11143,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11151,19 +11155,19 @@
         <v>142</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11171,7 +11175,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11194,16 +11198,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11253,7 +11257,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11271,7 +11275,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -707,13 +707,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -724,240 +717,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1093,7 +852,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1398,9 +1182,16 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1408,12 +1199,24 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1441,21 +1244,121 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
   </si>
   <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.method.coding.userSelected</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>unitDigit2</t>
   </si>
   <si>
@@ -1484,6 +1387,15 @@
   </si>
   <si>
     <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.dose</t>
@@ -1530,6 +1442,13 @@
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -1888,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1898,7 +1817,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4287,14 +4206,16 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4312,16 +4233,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4329,17 +4250,15 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4354,16 +4273,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4389,13 +4308,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4413,7 +4332,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4428,16 +4347,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4364,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4468,15 +4387,17 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4525,7 +4446,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4537,19 +4458,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4557,11 +4478,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4580,16 +4501,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4627,19 +4548,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4651,16 +4572,16 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4592,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4682,7 +4603,7 @@
         <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4694,20 +4615,18 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4755,13 +4674,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4770,16 +4689,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4787,7 +4706,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4798,7 +4717,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4807,16 +4726,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4867,31 +4786,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4899,18 +4818,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4922,17 +4841,15 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4969,37 +4886,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5013,18 +4930,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5033,23 +4950,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5097,31 +5012,31 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5129,41 +5044,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5211,31 +5128,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5243,7 +5160,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5251,7 +5168,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5263,21 +5180,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5301,13 +5216,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5240,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5340,16 +5255,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5357,7 +5272,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5365,7 +5280,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5380,18 +5295,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5439,10 +5352,10 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -5454,16 +5367,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5471,7 +5384,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5482,7 +5395,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5491,23 +5404,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5531,13 +5440,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5555,13 +5464,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5570,16 +5479,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5587,7 +5496,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5598,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5607,23 +5516,21 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5671,13 +5578,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5686,28 +5593,26 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5725,21 +5630,23 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5787,10 +5694,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5802,16 +5709,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5819,7 +5726,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5827,10 +5734,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5839,19 +5746,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5901,13 +5808,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -5916,16 +5823,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5933,7 +5840,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5944,7 +5851,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5956,16 +5863,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6015,13 +5922,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6030,16 +5937,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6047,7 +5954,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6058,7 +5965,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6070,17 +5977,15 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6129,28 +6034,28 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>329</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6161,7 +6066,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6169,7 +6074,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
@@ -6181,20 +6086,18 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6243,10 +6146,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -6255,19 +6158,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6275,11 +6178,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6295,18 +6198,20 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6355,7 +6260,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6367,19 +6272,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6387,39 +6292,43 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6467,25 +6376,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6499,18 +6408,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6522,17 +6431,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6581,25 +6488,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6613,43 +6520,41 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6673,13 +6578,11 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6697,31 +6600,31 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6729,7 +6632,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6755,12 +6658,14 @@
         <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6785,11 +6690,9 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
         <v>348</v>
       </c>
@@ -6809,7 +6712,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6824,16 +6727,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6849,7 +6752,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6861,19 +6764,23 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6897,13 +6804,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6924,7 +6831,7 @@
         <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6936,16 +6843,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6953,7 +6860,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6964,7 +6871,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6976,13 +6883,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7009,13 +6916,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7033,31 +6940,31 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7065,11 +6972,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7088,16 +6995,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7135,19 +7042,19 @@
         <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7159,27 +7066,27 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7190,7 +7097,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7199,22 +7106,22 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7251,25 +7158,23 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7278,16 +7183,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7295,9 +7200,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7306,7 +7213,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7315,21 +7222,23 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7353,13 +7262,11 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7284,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7395,13 +7302,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7409,7 +7316,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7420,7 +7327,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7432,17 +7339,15 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>261</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7491,25 +7396,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7523,18 +7428,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7546,15 +7451,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7591,37 +7498,37 @@
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7635,7 +7542,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7643,7 +7550,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7655,25 +7562,29 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>77</v>
@@ -7715,7 +7626,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>232</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7727,19 +7638,19 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>233</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7747,18 +7658,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7767,19 +7678,19 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7829,31 +7740,31 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7861,42 +7772,40 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>160</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7945,31 +7854,31 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7977,7 +7886,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7997,19 +7906,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8057,7 +7968,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8075,13 +7986,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8089,7 +8000,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8109,21 +8020,23 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>193</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8147,11 +8060,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8169,7 +8084,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8187,13 +8102,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8201,9 +8116,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8221,21 +8138,23 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>193</v>
+        <v>363</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8263,7 +8182,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8281,13 +8200,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8299,13 +8218,13 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8313,7 +8232,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8336,20 +8255,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>261</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8373,13 +8288,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8397,7 +8312,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>263</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8409,19 +8324,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8429,18 +8344,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8452,15 +8367,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8497,37 +8414,37 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8541,18 +8458,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8561,27 +8478,29 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>77</v>
@@ -8611,43 +8530,43 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>386</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>233</v>
+        <v>387</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8655,7 +8574,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8666,7 +8585,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8678,20 +8597,18 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8727,23 +8644,25 @@
         <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8755,13 +8674,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8769,11 +8688,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8794,19 +8711,17 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8831,11 +8746,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8853,13 +8770,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8871,13 +8788,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>247</v>
+        <v>402</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8885,7 +8802,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8905,19 +8822,21 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8965,7 +8884,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>232</v>
+        <v>407</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8977,19 +8896,19 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8997,18 +8916,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9017,21 +8936,23 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>235</v>
+        <v>412</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9067,43 +8988,43 @@
         <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9111,7 +9032,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9119,7 +9040,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>86</v>
@@ -9134,26 +9055,26 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>251</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>252</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>253</v>
+        <v>427</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>77</v>
@@ -9195,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>255</v>
+        <v>429</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9213,13 +9134,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>257</v>
+        <v>431</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9227,7 +9148,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9247,19 +9168,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>229</v>
+        <v>433</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>259</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>261</v>
+        <v>436</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9309,7 +9230,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>262</v>
+        <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9318,22 +9239,22 @@
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>264</v>
+        <v>439</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9341,7 +9262,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9361,21 +9282,21 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>106</v>
+        <v>441</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>266</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9411,19 +9332,17 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9441,13 +9360,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>271</v>
+        <v>448</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9455,9 +9374,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9475,21 +9396,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>229</v>
+        <v>450</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9537,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9546,22 +9467,22 @@
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>453</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>277</v>
+        <v>454</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9569,9 +9490,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9589,23 +9512,21 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>282</v>
+        <v>456</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9653,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>285</v>
+        <v>440</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9662,22 +9583,22 @@
         <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9685,11 +9606,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9698,7 +9617,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9707,23 +9626,21 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>240</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9747,11 +9664,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9769,7 +9688,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9787,1503 +9706,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>246</v>
+        <v>462</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -1444,43 +1444,10 @@
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
-  </si>
-  <si>
-    <t>rateRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
-</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1807,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9332,14 +9299,16 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>440</v>
@@ -9360,13 +9329,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9374,11 +9343,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9387,7 +9354,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9399,16 +9366,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9458,263 +9425,33 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>453</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
